--- a/resource/TEMPLATE_special_tradings.xlsx
+++ b/resource/TEMPLATE_special_tradings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\COCOA\Hole\ARK\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52C82B-AF0E-4DD6-8C88-4C779C8B94D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B5AF01-E739-4CCB-915D-898F8462A7A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="525" windowWidth="28035" windowHeight="20475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1440" windowWidth="21015" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="3" r:id="rId1"/>
@@ -79,19 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
@@ -101,6 +88,19 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
@@ -150,26 +150,26 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,536 +453,536 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
-    <col min="4" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8">
         <v>1000000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>0.3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>0.3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8">
         <v>-1000000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>0.3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>0.3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>